--- a/LCD/tables/compatibility.xlsx
+++ b/LCD/tables/compatibility.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studium\TUM\BA\CE\data_handling\matlab_cad\CAD_Import\LCD\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057ABAB2-93E8-4831-97E8-F13ACAD67C92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E2A927-82DB-4C6F-B838-0806175B97D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="compatibility" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>ecodesign-bio-izm-material-efficiency-meerp_en</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>PE</t>
   </si>
 </sst>
 </file>
@@ -498,7 +501,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +510,7 @@
     <col min="2" max="24" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
@@ -581,10 +584,13 @@
         <v>27</v>
       </c>
       <c r="Y1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -624,7 +630,7 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -664,7 +670,7 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -704,7 +710,7 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -732,7 +738,7 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -760,7 +766,7 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -800,7 +806,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -828,7 +834,7 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -856,7 +862,7 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
@@ -884,7 +890,7 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
@@ -924,7 +930,7 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
@@ -964,7 +970,7 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -992,7 +998,7 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>17</v>
       </c>
@@ -1020,7 +1026,7 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
@@ -1059,8 +1065,11 @@
       <c r="X15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1088,7 +1097,7 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
@@ -1116,7 +1125,7 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
@@ -1144,7 +1153,7 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
@@ -1183,8 +1192,11 @@
       <c r="X19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>23</v>
       </c>
@@ -1223,8 +1235,11 @@
       <c r="X20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>24</v>
       </c>
@@ -1252,7 +1267,7 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>25</v>
       </c>
@@ -1291,8 +1306,11 @@
       <c r="X22" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y22" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>26</v>
       </c>
@@ -1331,8 +1349,11 @@
       <c r="X23" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>27</v>
       </c>
@@ -1371,9 +1392,38 @@
       <c r="X24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="S25" s="2">
+        <v>0</v>
+      </c>
+      <c r="T25" s="2">
+        <v>0</v>
+      </c>
+      <c r="V25" s="2">
+        <v>1</v>
+      </c>
+      <c r="W25" s="2">
+        <v>0</v>
+      </c>
+      <c r="X25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>29</v>
       </c>
     </row>
